--- a/Benchtop/parts-list/Benchtop-partslist-UCLupdate.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-UCLupdate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/dmcbytl_ucl_ac_uk/Documents/benchtop-hardware/Benchtop/parts-list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{C01BB929-D205-4AC4-985D-FA28D980D902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F127F6F5-1A48-485E-B7FD-F3B84D6059DB}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{C01BB929-D205-4AC4-985D-FA28D980D902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3F26567-483F-4D20-8A49-514805B30C52}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="675" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="2535" windowWidth="24330" windowHeight="11385" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="650">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -2045,12 +2045,64 @@
   <si>
     <t>sawn off M6 45mm screw</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This set of cables was not necessary for me as the power cables came bundled with the GPS011 unit and command cable with free wire ends for connection with the screw terminal block was in the CBLS3F set. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CHECK WITH LOCAL THORLABS REP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>BNC DOUBLE FEMALE ADAPTOR ZINC</t>
+  </si>
+  <si>
+    <t>Cables</t>
+  </si>
+  <si>
+    <t>BNC PLUG TO FREE END, BLACK/RED, 150MM</t>
+  </si>
+  <si>
+    <t>Depending on the laser control interface (Oxxius: SMB). Order 2 per laser line</t>
+  </si>
+  <si>
+    <t>necessary for stage control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male to free end. You could buy female to free end and not buy the adaptors(above) but this was strangely much harder to find and more expensive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only 1 of these is needed for stage control. Depends on how far the controller is from the terminal block. You could also buy a 	thorlabs CA2024 bnc male to free end cable but this is a bit more expensive… </t>
+  </si>
+  <si>
+    <t>Splitting the BNC trigger between Z- and F-cards of ASI controller. Cheaper ones available from other suppliers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depends on laser interface. Oxxius: IO connector must be modified, pin24 (MDL-FSTM) and pin16 (GND Digital), to accept arm switching signal. Ask oxxius to do this when ordering. You want free wire ends. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2254,6 +2306,41 @@
       <color rgb="FF333333"/>
       <name val="Open Sans"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF362B36"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2355,7 +2442,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -2458,6 +2545,7 @@
     <xf numFmtId="1" fontId="27" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2470,7 +2558,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Heading 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2864,8 +2971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7089,7 +7196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -8592,10 +8699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8608,7 +8715,7 @@
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="85" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="85" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
@@ -8634,7 +8741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="84" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="84" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
         <v>46</v>
       </c>
@@ -8642,7 +8749,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>604</v>
       </c>
@@ -8674,7 +8781,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>607</v>
       </c>
@@ -8706,29 +8813,29 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="92" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="93" t="s">
         <v>611</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="92" t="s">
         <v>612</v>
       </c>
-      <c r="D5" s="93">
-        <v>1</v>
-      </c>
-      <c r="E5" s="93">
+      <c r="D5" s="94">
+        <v>1</v>
+      </c>
+      <c r="E5" s="94">
         <v>113</v>
       </c>
-      <c r="F5" s="93">
+      <c r="F5" s="94">
         <v>113</v>
       </c>
-      <c r="G5" s="90" t="s">
+      <c r="G5" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="91" t="s">
+      <c r="H5" s="92" t="s">
         <v>173</v>
       </c>
       <c r="I5" t="s">
@@ -8738,15 +8845,15 @@
         <v>508</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="92"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="93"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="92"/>
       <c r="I6" t="s">
         <v>172</v>
       </c>
@@ -8754,7 +8861,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -8780,7 +8887,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>613</v>
       </c>
@@ -8812,7 +8919,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>618</v>
       </c>
@@ -8844,109 +8951,382 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+    <row r="10" spans="1:10" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="84" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="99">
+        <v>3384436</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>640</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>641</v>
+      </c>
+      <c r="D11" s="101">
+        <v>14</v>
+      </c>
+      <c r="E11" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="101">
+        <f>E11*D11</f>
+        <v>7</v>
+      </c>
+      <c r="G11" s="101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="99">
+        <v>3703635</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>640</v>
+      </c>
+      <c r="C12" s="100" t="s">
+        <v>643</v>
+      </c>
+      <c r="D12" s="101">
+        <v>14</v>
+      </c>
+      <c r="E12" s="101">
+        <v>6</v>
+      </c>
+      <c r="F12" s="101">
+        <f>E12*D12</f>
+        <v>84</v>
+      </c>
+      <c r="G12" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="101" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="101" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="101">
+        <v>12</v>
+      </c>
+      <c r="E13" s="102">
+        <v>12</v>
+      </c>
+      <c r="F13" s="102">
+        <f t="shared" ref="F13:F19" si="0">E13*D13</f>
+        <v>144</v>
+      </c>
+      <c r="G13" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="101" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="103" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="103">
+        <v>1</v>
+      </c>
+      <c r="E14" s="104">
+        <v>14</v>
+      </c>
+      <c r="F14" s="104">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G14" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="101" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="101" t="s">
+        <v>573</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="101">
+        <v>1</v>
+      </c>
+      <c r="E15" s="102">
+        <v>15.25</v>
+      </c>
+      <c r="F15" s="102">
+        <f t="shared" si="0"/>
+        <v>15.25</v>
+      </c>
+      <c r="G15" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="101" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="101">
+        <v>1</v>
+      </c>
+      <c r="E16" s="102">
+        <v>16.5</v>
+      </c>
+      <c r="F16" s="102">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="G16" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="105" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="101" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="101">
+        <v>1</v>
+      </c>
+      <c r="E17" s="102">
+        <v>24</v>
+      </c>
+      <c r="F17" s="102">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G17" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="105"/>
+    </row>
+    <row r="18" spans="1:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="101" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="101">
+        <v>1</v>
+      </c>
+      <c r="E18" s="102">
+        <v>24</v>
+      </c>
+      <c r="F18" s="102">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G18" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="105"/>
+    </row>
+    <row r="19" spans="1:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="106" t="s">
+        <v>585</v>
+      </c>
+      <c r="B19" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="101" t="s">
+        <v>586</v>
+      </c>
+      <c r="D19" s="101">
+        <v>1</v>
+      </c>
+      <c r="E19" s="102">
+        <v>11</v>
+      </c>
+      <c r="F19" s="102">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G19" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="101" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="84" t="s">
         <v>621</v>
       </c>
-      <c r="I11" s="84" t="s">
+      <c r="I20" s="84" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
         <v>622</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B21" t="s">
         <v>624</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C21" t="s">
         <v>623</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G21" t="s">
         <v>636</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H21" t="s">
         <v>633</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I21" s="40" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
         <v>630</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B22" t="s">
         <v>624</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C22" t="s">
         <v>631</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G22" t="s">
         <v>636</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H22" t="s">
         <v>633</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I22" s="40" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="I14" s="40"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>625</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B23" t="s">
         <v>626</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C23" t="s">
         <v>627</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>628</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H23" t="s">
         <v>629</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I23" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J23" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="K15" s="89" t="s">
+      <c r="K23" s="89" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="94" t="s">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="90" t="s">
         <v>634</v>
       </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
         <v>635</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
         <v>637</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I24" s="29" t="s">
         <v>638</v>
       </c>
     </row>
+    <row r="26" spans="1:11" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="84" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="96" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="95" t="s">
+        <v>517</v>
+      </c>
+      <c r="B27" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="95" t="s">
+        <v>518</v>
+      </c>
+      <c r="D27" s="96">
+        <v>2</v>
+      </c>
+      <c r="E27" s="97">
+        <v>148</v>
+      </c>
+      <c r="F27" s="98">
+        <f t="shared" ref="F27" si="1">E27*D27</f>
+        <v>296</v>
+      </c>
+      <c r="G27" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="H16:H18"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="A5:A6"/>
@@ -8957,7 +9337,7 @@
     <mergeCell ref="F5:F6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K15" r:id="rId1" xr:uid="{C4BC15FE-AB72-4028-B930-9816C7048D78}"/>
+    <hyperlink ref="K23" r:id="rId1" xr:uid="{C4BC15FE-AB72-4028-B930-9816C7048D78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
